--- a/src/main/resources/excel/Auswertung_Gr-C.xlsx
+++ b/src/main/resources/excel/Auswertung_Gr-C.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bzzch-my.sharepoint.com/personal/giuntinil_bzz_ch/Documents/Desktop/IMS BZZ/M411/M411-Gruppenarbeit-Gr.-C/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6E028A-F09F-4309-B965-D804C1245EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8B6E028A-F09F-4309-B965-D804C1245EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5ED364E-F6AB-4570-9A41-F4F574F227A4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="22780" windowHeight="14800" xr2:uid="{B1B35D84-10E8-42C5-9638-6C43330DFD7C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
